--- a/2023-2024.xlsx
+++ b/2023-2024.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nr. înregistrare</t>
   </si>
@@ -21,12 +21,6 @@
   </si>
   <si>
     <t>Nume student</t>
-  </si>
-  <si>
-    <t>Inițiala tatălui</t>
-  </si>
-  <si>
-    <t>Prenume student</t>
   </si>
   <si>
     <t>Domeniu de studii</t>
@@ -92,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -129,12 +123,6 @@
       <c r="J1" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s" s="0">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
